--- a/Tish-Tosh Noise Percussion v1 BOM.xlsx
+++ b/Tish-Tosh Noise Percussion v1 BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="10360" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="13240" yWindow="240" windowWidth="12360" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>MAIN BOARD</t>
   </si>
@@ -195,9 +195,6 @@
     <t>R30, R43</t>
   </si>
   <si>
-    <t>R19, R20, R21, R23, R26, R27, R28, R41, R54, R60</t>
-  </si>
-  <si>
     <t>4.7K</t>
   </si>
   <si>
@@ -265,6 +262,15 @@
   </si>
   <si>
     <t>R11, R16, R18, R31, R35, R37, R48, R50, R55, R56, R57, R58, R59</t>
+  </si>
+  <si>
+    <t>2.2K</t>
+  </si>
+  <si>
+    <t>R23, R26</t>
+  </si>
+  <si>
+    <t>R19, R20, R21,  R27, R28, R41, R54, R60</t>
   </si>
 </sst>
 </file>
@@ -332,7 +338,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,6 +360,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -694,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -792,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -861,6 +873,10 @@
         <v>25</v>
       </c>
     </row>
+    <row r="17" spans="1:4" s="9" customFormat="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+    </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>3</v>
@@ -943,10 +959,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -988,7 +1004,7 @@
         <v>42</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1075,15 +1091,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3">
       <c r="A46" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1091,109 +1107,109 @@
         <v>2</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3">
+        <v>2</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="1" t="s">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3">
+        <v>2</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="3">
-        <v>2</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="C53" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="3">
-        <v>2</v>
-      </c>
-      <c r="B55" s="5">
-        <v>4148</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3">
         <v>2</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>67</v>
+      <c r="B56" s="5">
+        <v>4148</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3">
         <v>2</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3">
+        <v>2</v>
+      </c>
+      <c r="B58" s="5">
         <v>3904</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2">
-        <v>2</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
+        <v>2</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>1</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2">
-        <v>2</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>77</v>
+      <c r="B62" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1201,21 +1217,32 @@
         <v>2</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30">
-      <c r="A66" s="3">
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>2</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30">
+      <c r="A67" s="3">
         <v>14</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>78</v>
+      <c r="B67" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
